--- a/文档/其他文档/Others/Sports/Formula One赛车比赛观赛选择方式.xlsx
+++ b/文档/其他文档/Others/Sports/Formula One赛车比赛观赛选择方式.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="观赛转播平台统计" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="81">
   <si>
     <t>第一次自由练习
 Free Practice 1</t>
@@ -362,6 +362,23 @@
   </si>
   <si>
     <t>Reddit集合网页直播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.xiaomitv.net/tiyu/jinbaotiyu.html
+http://www.leshi123.com/tiyu/jinbaotiyu.html
+http://www.leshitya.com/tiyu/jinbaotiyu.html
+http://www.haoqu.net/3/shanghai/jinbty.html（高清）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高清稳定，标清不稳定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.xiaomitv.net/tiyu/wuxingtiyu.html
+http://www.leshi123.com/tiyu/wuxingtiyu.html
+https://www.feiliuzhibo.com/channel/wxty.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,9 +560,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -630,6 +644,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -641,12 +658,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -688,7 +708,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -723,7 +743,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -934,56 +954,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="8"/>
-    <col min="7" max="7" width="15.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="7"/>
+    <col min="7" max="7" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="8"/>
-    <col min="12" max="12" width="21.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="7"/>
+    <col min="12" max="12" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="8"/>
-    <col min="15" max="15" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="7"/>
+    <col min="15" max="15" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="10.375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.33203125" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="3" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="3" t="s">
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="3" t="s">
+      <c r="M1" s="44"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="3"/>
+      <c r="P1" s="44"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1001,7 +1021,7 @@
       <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="18"/>
+      <c r="F2" s="17"/>
       <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
@@ -1014,240 +1034,240 @@
       <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="18"/>
+      <c r="K2" s="17"/>
       <c r="L2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="18"/>
+      <c r="N2" s="17"/>
       <c r="O2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="8"/>
-    </row>
-    <row r="3" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="W2" s="7"/>
+    </row>
+    <row r="3" spans="1:23" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="17"/>
-      <c r="L3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="17"/>
-      <c r="O3" s="11" t="s">
+      <c r="B3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="16"/>
+      <c r="L3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="16"/>
+      <c r="O3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="8"/>
-    </row>
-    <row r="4" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="W3" s="7"/>
+    </row>
+    <row r="4" spans="1:23" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="17"/>
-      <c r="O4" s="11" t="s">
+      <c r="B4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="16"/>
+      <c r="L4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="16"/>
+      <c r="O4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:23" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="11" t="s">
+      <c r="B5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="16"/>
+      <c r="L5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="16"/>
+      <c r="O5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:23" ht="104.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="9" t="s">
+      <c r="F6" s="16"/>
+      <c r="G6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="23" t="s">
+      <c r="K6" s="16"/>
+      <c r="L6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="M6" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="N6" s="17"/>
-      <c r="O6" s="10" t="s">
+      <c r="N6" s="16"/>
+      <c r="O6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:23" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="17"/>
-      <c r="O7" s="10" t="s">
+      <c r="B7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="16"/>
+      <c r="L7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="16"/>
+      <c r="O7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="8" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1269,19 +1289,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="50.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="74.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1319,403 +1339,407 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26" t="s">
+      <c r="A2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="24" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28" t="s">
+      <c r="A3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="26" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29" t="s">
+      <c r="B4" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="K4" s="28" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="30" t="s">
+      <c r="B5" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30" t="s">
+      <c r="H5" s="29"/>
+      <c r="I5" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="K5" s="29" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+    <row r="6" spans="1:11" ht="52.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="B6" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24" t="s">
+      <c r="H6" s="23"/>
+      <c r="I6" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="K6" s="23" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+    <row r="7" spans="1:11" ht="87" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="35" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34" t="s">
+      <c r="H7" s="33"/>
+      <c r="I7" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="J7" s="35" t="s">
+      <c r="J7" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="K7" s="34" t="s">
+      <c r="K7" s="33" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:11" ht="52.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="33" t="s">
+      <c r="B8" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33" t="s">
+      <c r="H8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K8" s="33" t="s">
+      <c r="K8" s="32" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:11" ht="69.599999999999994" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="33" t="s">
+      <c r="B9" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33" t="s">
+      <c r="H9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K9" s="33" t="s">
+      <c r="K9" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="39"/>
+      <c r="H12" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="K11" s="24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="40"/>
-      <c r="H12" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="J12" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="K12" s="40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="37" t="s">
+    <row r="14" spans="1:11" ht="52.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="42"/>
+      <c r="G14" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="I13" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="J13" s="37" t="s">
+      <c r="H14" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="K13" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="J14" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="K14" s="43" t="s">
+      <c r="K14" s="42" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1732,6 +1756,7 @@
     <hyperlink ref="H12" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -1741,7 +1766,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/其他文档/Others/Sports/Formula One赛车比赛观赛选择方式.xlsx
+++ b/文档/其他文档/Others/Sports/Formula One赛车比赛观赛选择方式.xlsx
@@ -378,7 +378,8 @@
   <si>
     <t>http://www.xiaomitv.net/tiyu/wuxingtiyu.html
 http://www.leshi123.com/tiyu/wuxingtiyu.html
-https://www.feiliuzhibo.com/channel/wxty.html</t>
+https://www.feiliuzhibo.com/channel/wxty.html
+http://www.haoqu.net/3/shanghai/wuxty.html （高清）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1514,7 +1515,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="52.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="69.599999999999994" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>42</v>
       </c>
@@ -1544,7 +1545,7 @@
         <v>68</v>
       </c>
       <c r="K8" s="32" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="69.599999999999994" x14ac:dyDescent="0.25">

--- a/文档/其他文档/Others/Sports/Formula One赛车比赛观赛选择方式.xlsx
+++ b/文档/其他文档/Others/Sports/Formula One赛车比赛观赛选择方式.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="观赛转播平台统计" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">观赛转播平台统计!$A$2:$E$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">转播的APP和链接说明!$B$1:$K$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">转播的APP和链接说明!$B$1:$K$20</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="88">
   <si>
     <t>第一次自由练习
 Free Practice 1</t>
@@ -130,15 +130,6 @@
   <si>
     <t>星火电视
 央视影音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灏哥B站直播
-五星体育网页直播
-劲爆体育网页直播
-CCTV5网页直播
-CCTV5+网页直播
-广东体育网页直播</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -235,14 +226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>五星体育</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>劲爆体育</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CCTV5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -285,11 +268,6 @@
   </si>
   <si>
     <t>https://sportsurge.net/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英国Sky F1网页直播
-Reddit集合网页直播</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -365,21 +343,65 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.xiaomitv.net/tiyu/jinbaotiyu.html
-http://www.leshi123.com/tiyu/jinbaotiyu.html
-http://www.leshitya.com/tiyu/jinbaotiyu.html
-http://www.haoqu.net/3/shanghai/jinbty.html（高清）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>高清稳定，标清不稳定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.xiaomitv.net/tiyu/wuxingtiyu.html
-http://www.leshi123.com/tiyu/wuxingtiyu.html
-https://www.feiliuzhibo.com/channel/wxty.html
-http://www.haoqu.net/3/shanghai/wuxty.html （高清）</t>
+    <t>http://www.xiaomitv.net/tiyu/wuxingtiyu.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.leshi123.com/tiyu/wuxingtiyu.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.feiliuzhibo.com/channel/wxty.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.haoqu.net/3/shanghai/wuxty.html (高清)</t>
+  </si>
+  <si>
+    <t>五星体育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劲爆体育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.xiaomitv.net/tiyu/jinbaotiyu.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.leshi123.com/tiyu/jinbaotiyu.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.leshitya.com/tiyu/jinbaotiyu.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.haoqu.net/3/shanghai/jinbty.html（高清）</t>
+  </si>
+  <si>
+    <t>CCTV5网页直播
+CCTV5+网页直播
+广东体育网页直播
+英国Sky F1网页直播
+Reddit集合网页直播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+五星体育网页直播
+劲爆体育网页直播
+灏哥B站直播
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观赛平台</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,7 +440,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -493,18 +515,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -551,25 +579,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -604,9 +636,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -620,14 +649,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -645,8 +669,68 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -667,7 +751,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -709,7 +793,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -744,7 +828,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -955,59 +1039,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="7"/>
-    <col min="7" max="7" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="7"/>
-    <col min="12" max="12" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="4"/>
+    <col min="12" max="12" width="21.875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="7"/>
-    <col min="15" max="15" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="4"/>
+    <col min="15" max="15" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="10.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.375" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="44" t="s">
+      <c r="A1" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="44" t="s">
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" s="44"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="44" t="s">
+      <c r="M1" s="57"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="44"/>
+      <c r="P1" s="57"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="52" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1022,7 +1108,7 @@
       <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="17"/>
+      <c r="F2" s="14"/>
       <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
@@ -1035,240 +1121,240 @@
       <c r="J2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="17"/>
+      <c r="K2" s="14"/>
       <c r="L2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="17"/>
+      <c r="N2" s="14"/>
       <c r="O2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="7"/>
-    </row>
-    <row r="3" spans="1:23" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="W2" s="4"/>
+    </row>
+    <row r="3" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="16"/>
-      <c r="O3" s="10" t="s">
+      <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="13"/>
+      <c r="L3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="13"/>
+      <c r="O3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="W3" s="7"/>
-    </row>
-    <row r="4" spans="1:23" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="W3" s="4"/>
+    </row>
+    <row r="4" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="16"/>
-      <c r="O4" s="10" t="s">
+      <c r="B4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="13"/>
+      <c r="L4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="13"/>
+      <c r="O4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="P4" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="16"/>
-      <c r="O5" s="10" t="s">
+      <c r="B5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="13"/>
+      <c r="L5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="13"/>
+      <c r="O5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="104.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:23" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="8" t="s">
+      <c r="D6" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="N6" s="16"/>
-      <c r="O6" s="9" t="s">
+      <c r="I6" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" s="13"/>
+      <c r="L6" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="N6" s="13"/>
+      <c r="O6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="P6" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="16"/>
-      <c r="O7" s="9" t="s">
+      <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="13"/>
+      <c r="O7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="P7" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1288,476 +1374,596 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="74.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="74.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="59"/>
+      <c r="B1" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H5" s="50"/>
+      <c r="I5" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="48"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="42"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="42"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="48"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="42"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="42"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="49"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="43"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="43"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="K12" s="41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="48"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="42"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="42"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="48"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="42"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="42"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="49"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="43"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="43"/>
+    </row>
+    <row r="16" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J16" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K16" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="32"/>
+      <c r="H18" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="J18" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="J19" s="29" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" s="24" t="s">
+      <c r="K19" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="35"/>
+      <c r="G20" s="34" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="J3" s="26" t="s">
+      <c r="H20" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="J4" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="K5" s="29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="K6" s="23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="87" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="J7" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="K7" s="33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K8" s="32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" s="32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="K10" s="23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="K11" s="23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="39"/>
-      <c r="H12" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="J12" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="K12" s="39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="36" t="s">
+      <c r="I20" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="37" t="s">
+      <c r="J20" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="K20" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="J13" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="J14" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="K14" s="42" t="s">
-        <v>62</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:K14"/>
+  <autoFilter ref="B1:K20"/>
+  <mergeCells count="20">
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="J8:J11"/>
+    <mergeCell ref="K8:K11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="E8:E11"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H10" r:id="rId1"/>
-    <hyperlink ref="H11" r:id="rId2"/>
+    <hyperlink ref="H16" r:id="rId1"/>
+    <hyperlink ref="H17" r:id="rId2"/>
     <hyperlink ref="H2" r:id="rId3"/>
     <hyperlink ref="H3" r:id="rId4" location="100360"/>
-    <hyperlink ref="H13" r:id="rId5"/>
-    <hyperlink ref="H14" r:id="rId6"/>
-    <hyperlink ref="H12" r:id="rId7"/>
+    <hyperlink ref="H19" r:id="rId5"/>
+    <hyperlink ref="H20" r:id="rId6"/>
+    <hyperlink ref="H18" r:id="rId7"/>
+    <hyperlink ref="H8" r:id="rId8"/>
+    <hyperlink ref="H9" r:id="rId9"/>
+    <hyperlink ref="H10" r:id="rId10"/>
+    <hyperlink ref="H11" r:id="rId11"/>
+    <hyperlink ref="H12" r:id="rId12"/>
+    <hyperlink ref="H13" r:id="rId13"/>
+    <hyperlink ref="H14" r:id="rId14"/>
+    <hyperlink ref="H15" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 
@@ -1767,7 +1973,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/其他文档/Others/Sports/Formula One赛车比赛观赛选择方式.xlsx
+++ b/文档/其他文档/Others/Sports/Formula One赛车比赛观赛选择方式.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="观赛转播平台统计" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">观赛转播平台统计!$A$2:$E$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">转播的APP和链接说明!$B$1:$K$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">转播的APP和链接说明!$B$1:$K$19</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="93">
   <si>
     <t>第一次自由练习
 Free Practice 1</t>
@@ -115,16 +115,6 @@
   <si>
     <t xml:space="preserve">
 央视影音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电视家
-灏哥B站直播</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电视家
-灏哥B站直播</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -343,46 +333,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高清稳定，标清不稳定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.xiaomitv.net/tiyu/wuxingtiyu.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.leshi123.com/tiyu/wuxingtiyu.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.feiliuzhibo.com/channel/wxty.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.haoqu.net/3/shanghai/wuxty.html (高清)</t>
-  </si>
-  <si>
     <t>五星体育</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>劲爆体育</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.xiaomitv.net/tiyu/jinbaotiyu.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.leshi123.com/tiyu/jinbaotiyu.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.leshitya.com/tiyu/jinbaotiyu.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.haoqu.net/3/shanghai/jinbty.html（高清）</t>
   </si>
   <si>
     <t>CCTV5网页直播
@@ -393,15 +345,94 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>观赛平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">
 五星体育网页直播
 劲爆体育网页直播
-灏哥B站直播
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>观赛平台</t>
+黑白直播
+灏哥B站直播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+五星体育网页直播
+劲爆体育网页直播
+黑白直播
+灏哥B站直播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑白直播
+腾讯体育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑白直播
+腾讯体育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视家
+播播TV
+黑白直播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>播播TV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑白直播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五星体育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络直播采用腾讯体育直播信号
+五星体育：可能需要为其他赛事让路
+进行延时转播或者不转播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.heibaizhibo.com/live/f1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五星体育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劲爆体育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直播源：http://liveplay-kk.rtxapp.com/live/program/live/jbtyhd/2300000/mnf.m3u8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tv.haoqu99.com/3/shanghai/wuxty.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直播源2：http://39.135.248.150/hwcdntest.hb.chinamobile.com/PLTV/88888888/224/3221225964/3.m3u8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直播源1：http://liveplay-kk.rtxapp.com/live/program/live/ssty/2300000/mnf.m3u8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tv.haoqu99.com/3/shanghai/jinbty.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能需要为其他赛事让路
+进行延时转播或者不转播（直播源地址不是长期有效，需要在观看比赛前进入网页重新提取）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -597,7 +628,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -633,9 +664,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -672,42 +700,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -725,13 +717,71 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -751,7 +801,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -793,7 +843,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -828,7 +878,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1039,61 +1089,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="4"/>
-    <col min="7" max="7" width="15.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="4"/>
-    <col min="12" max="12" width="21.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="4"/>
-    <col min="15" max="15" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="10.375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.33203125" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="57" t="s">
+      <c r="A1" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
       <c r="F1" s="14"/>
-      <c r="G1" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
+      <c r="G1" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
       <c r="K1" s="15"/>
-      <c r="L1" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="57"/>
+      <c r="L1" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="46"/>
       <c r="N1" s="14"/>
-      <c r="O1" s="57" t="s">
+      <c r="O1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="57"/>
+      <c r="P1" s="46"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="39" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1137,34 +1189,34 @@
       </c>
       <c r="W2" s="4"/>
     </row>
-    <row r="3" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+    <row r="3" spans="1:23" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>19</v>
+      <c r="C3" s="56" t="s">
+        <v>78</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>19</v>
+      <c r="E3" s="56" t="s">
+        <v>77</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>19</v>
+      <c r="H3" s="56" t="s">
+        <v>77</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>19</v>
+      <c r="J3" s="56" t="s">
+        <v>77</v>
       </c>
       <c r="K3" s="13"/>
       <c r="L3" s="8" t="s">
@@ -1182,34 +1234,34 @@
       </c>
       <c r="W3" s="4"/>
     </row>
-    <row r="4" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+    <row r="4" spans="1:23" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>19</v>
+      <c r="C4" s="56" t="s">
+        <v>77</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>19</v>
+      <c r="E4" s="56" t="s">
+        <v>77</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>19</v>
+      <c r="H4" s="56" t="s">
+        <v>77</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="9" t="s">
-        <v>19</v>
+      <c r="J4" s="56" t="s">
+        <v>77</v>
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="8" t="s">
@@ -1226,34 +1278,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+    <row r="5" spans="1:23" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>19</v>
+      <c r="C5" s="56" t="s">
+        <v>77</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>19</v>
+      <c r="E5" s="56" t="s">
+        <v>77</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>19</v>
+      <c r="H5" s="56" t="s">
+        <v>77</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="9" t="s">
-        <v>19</v>
+      <c r="J5" s="56" t="s">
+        <v>77</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="8" t="s">
@@ -1270,41 +1322,41 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
+    <row r="6" spans="1:23" ht="87" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>85</v>
+      <c r="D6" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>73</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>85</v>
+      <c r="I6" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>73</v>
       </c>
       <c r="K6" s="13"/>
-      <c r="L6" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>85</v>
+      <c r="L6" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>73</v>
       </c>
       <c r="N6" s="13"/>
       <c r="O6" s="6" t="s">
@@ -1314,34 +1366,34 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+    <row r="7" spans="1:23" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A7" s="40" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>19</v>
+      <c r="C7" s="56" t="s">
+        <v>77</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>19</v>
+      <c r="E7" s="56" t="s">
+        <v>77</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>19</v>
+      <c r="H7" s="56" t="s">
+        <v>77</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="9" t="s">
-        <v>19</v>
+      <c r="J7" s="56" t="s">
+        <v>77</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="8" t="s">
@@ -1374,596 +1426,613 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="74.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="74.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="59"/>
-      <c r="B1" s="58" t="s">
+      <c r="A1" s="45"/>
+      <c r="B1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="58" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="58" t="s">
+      <c r="C1" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="J1" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1" s="58" t="s">
-        <v>61</v>
+      <c r="I1" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="44" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>59</v>
+      <c r="B2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="22" t="s">
+      <c r="B5" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J5" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="52.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="87" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="69.599999999999994" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="60"/>
+      <c r="F10" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" s="50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="58"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="48"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="51"/>
+    </row>
+    <row r="12" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="59"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" s="49"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="52"/>
+    </row>
+    <row r="13" spans="1:11" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="60"/>
+      <c r="F13" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" s="50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="59"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="49"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="52"/>
+    </row>
+    <row r="15" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="31"/>
+      <c r="H17" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="K17" s="31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50" t="s">
+      <c r="I18" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="J5" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5" s="50" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="K7" s="26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="J8" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="K8" s="41" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="42"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="42"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" s="42"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="42"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="43"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="43"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="H12" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="I12" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="J12" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="K12" s="41" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" s="42"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="42"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="I14" s="42"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="42"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="I15" s="43"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="43"/>
-    </row>
-    <row r="16" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="J18" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="K18" s="32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="29" t="s">
+      <c r="J18" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="H19" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="I19" s="29" t="s">
+      <c r="K18" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="52.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="J19" s="29" t="s">
+      <c r="B19" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="34"/>
+      <c r="G19" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="34" t="s">
+      <c r="J19" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="H20" s="36" t="s">
+      <c r="K19" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="I20" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="J20" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="K20" s="35" t="s">
-        <v>58</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:K20"/>
+  <autoFilter ref="B1:K19"/>
   <mergeCells count="20">
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="K12:K15"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="J8:J11"/>
-    <mergeCell ref="K8:K11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="E10:E12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H16" r:id="rId1"/>
-    <hyperlink ref="H17" r:id="rId2"/>
+    <hyperlink ref="H15" r:id="rId1"/>
+    <hyperlink ref="H16" r:id="rId2"/>
     <hyperlink ref="H2" r:id="rId3"/>
     <hyperlink ref="H3" r:id="rId4" location="100360"/>
-    <hyperlink ref="H19" r:id="rId5"/>
-    <hyperlink ref="H20" r:id="rId6"/>
-    <hyperlink ref="H18" r:id="rId7"/>
+    <hyperlink ref="H18" r:id="rId5"/>
+    <hyperlink ref="H19" r:id="rId6"/>
+    <hyperlink ref="H17" r:id="rId7"/>
     <hyperlink ref="H8" r:id="rId8"/>
-    <hyperlink ref="H9" r:id="rId9"/>
-    <hyperlink ref="H10" r:id="rId10"/>
-    <hyperlink ref="H11" r:id="rId11"/>
-    <hyperlink ref="H12" r:id="rId12"/>
-    <hyperlink ref="H13" r:id="rId13"/>
-    <hyperlink ref="H14" r:id="rId14"/>
-    <hyperlink ref="H15" r:id="rId15"/>
+    <hyperlink ref="H10" r:id="rId9"/>
+    <hyperlink ref="H13" r:id="rId10"/>
+    <hyperlink ref="H14" r:id="rId11" display="http://liveplay-kk.rtxapp.com/live/program/live/jbtyhd/2300000/mnf.m3u8"/>
+    <hyperlink ref="H11" r:id="rId12" display="http://liveplay-kk.rtxapp.com/live/program/live/ssty/2300000/mnf.m3u8"/>
+    <hyperlink ref="H12" r:id="rId13" display="http://39.135.248.150/hwcdntest.hb.chinamobile.com/PLTV/88888888/224/3221225964/3.m3u8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -1973,7 +2042,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/其他文档/Others/Sports/Formula One赛车比赛观赛选择方式.xlsx
+++ b/文档/其他文档/Others/Sports/Formula One赛车比赛观赛选择方式.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="观赛转播平台统计" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="99">
   <si>
     <t>第一次自由练习
 Free Practice 1</t>
@@ -110,11 +110,6 @@
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-央视影音</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -337,102 +332,142 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CCTV5网页直播
-CCTV5+网页直播
+    <t>电视家
+播播TV
+黑白直播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>播播TV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑白直播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五星体育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络直播采用腾讯体育直播信号
+五星体育：可能需要为其他赛事让路
+进行延时转播或者不转播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.heibaizhibo.com/live/f1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五星体育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劲爆体育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直播源：http://liveplay-kk.rtxapp.com/live/program/live/jbtyhd/2300000/mnf.m3u8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tv.haoqu99.com/3/shanghai/wuxty.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直播源2：http://39.135.248.150/hwcdntest.hb.chinamobile.com/PLTV/88888888/224/3221225964/3.m3u8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直播源1：http://liveplay-kk.rtxapp.com/live/program/live/ssty/2300000/mnf.m3u8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tv.haoqu99.com/3/shanghai/jinbty.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能需要为其他赛事让路
+进行延时转播或者不转播（直播源地址不是长期有效，需要在观看比赛前进入网页重新提取）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯体育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观赛平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视家
+播播TV
+企鹅直播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视家
+播播TV
+求苗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOS版本
+黑白直播
+名为求苗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五星体育直播源
+劲爆体育直播源
+黑白直播
+企鹅直播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCTV5，5+网页直播
 广东体育网页直播
 英国Sky F1网页直播
 Reddit集合网页直播</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>观赛平台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-五星体育网页直播
-劲爆体育网页直播
+    <t>五星体育直播源
+劲爆体育直播源
 黑白直播
 灏哥B站直播</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>CCTV5，5+网页直播
+广东体育网页直播
+英国Sky F1网页直播
+腾讯体育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">
-五星体育网页直播
-劲爆体育网页直播
-黑白直播
-灏哥B站直播</t>
+央视影音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求苗
+央视影音
+腾讯体育</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>黑白直播
+央视影音
 腾讯体育</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>黑白直播
-腾讯体育</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电视家
-播播TV
-黑白直播</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>播播TV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑白直播</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五星体育</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网络直播采用腾讯体育直播信号
-五星体育：可能需要为其他赛事让路
-进行延时转播或者不转播</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.heibaizhibo.com/live/f1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五星体育</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>劲爆体育</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直播源：http://liveplay-kk.rtxapp.com/live/program/live/jbtyhd/2300000/mnf.m3u8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://tv.haoqu99.com/3/shanghai/wuxty.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直播源2：http://39.135.248.150/hwcdntest.hb.chinamobile.com/PLTV/88888888/224/3221225964/3.m3u8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直播源1：http://liveplay-kk.rtxapp.com/live/program/live/ssty/2300000/mnf.m3u8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://tv.haoqu99.com/3/shanghai/jinbty.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可能需要为其他赛事让路
-进行延时转播或者不转播（直播源地址不是长期有效，需要在观看比赛前进入网页重新提取）</t>
+    <t>CCTV5，5+网页直播
+广东体育网页直播
+英国Sky F1网页直播
+Reddit集合网页直播</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,12 +551,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -559,6 +588,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3399"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,7 +663,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -665,123 +700,124 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -789,6 +825,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF3399"/>
+      <color rgb="FF339966"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -801,7 +843,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -843,7 +885,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -878,7 +920,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1087,65 +1129,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="4"/>
-    <col min="7" max="7" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.25" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="4"/>
-    <col min="12" max="12" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.25" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="4"/>
-    <col min="15" max="15" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="10.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.375" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="46" t="s">
+      <c r="A1" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
       <c r="F1" s="14"/>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="46"/>
+      <c r="M1" s="51"/>
       <c r="N1" s="14"/>
-      <c r="O1" s="46" t="s">
+      <c r="O1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="46"/>
+      <c r="P1" s="51"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="36" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1189,34 +1229,34 @@
       </c>
       <c r="W2" s="4"/>
     </row>
-    <row r="3" spans="1:23" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="56" t="s">
-        <v>78</v>
+      <c r="C3" s="43" t="s">
+        <v>86</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="56" t="s">
-        <v>77</v>
+      <c r="E3" s="43" t="s">
+        <v>19</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="56" t="s">
-        <v>77</v>
+      <c r="H3" s="43" t="s">
+        <v>86</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="56" t="s">
-        <v>77</v>
+      <c r="J3" s="43" t="s">
+        <v>19</v>
       </c>
       <c r="K3" s="13"/>
       <c r="L3" s="8" t="s">
@@ -1234,34 +1274,34 @@
       </c>
       <c r="W3" s="4"/>
     </row>
-    <row r="4" spans="1:23" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+    <row r="4" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="56" t="s">
-        <v>77</v>
+      <c r="C4" s="43" t="s">
+        <v>86</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="56" t="s">
-        <v>77</v>
+      <c r="E4" s="43" t="s">
+        <v>19</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="56" t="s">
-        <v>77</v>
+      <c r="H4" s="43" t="s">
+        <v>86</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="56" t="s">
-        <v>77</v>
+      <c r="J4" s="43" t="s">
+        <v>19</v>
       </c>
       <c r="K4" s="13"/>
       <c r="L4" s="8" t="s">
@@ -1278,34 +1318,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+    <row r="5" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="56" t="s">
-        <v>77</v>
+      <c r="C5" s="43" t="s">
+        <v>86</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="56" t="s">
-        <v>77</v>
+      <c r="E5" s="43" t="s">
+        <v>19</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="56" t="s">
-        <v>77</v>
+      <c r="H5" s="43" t="s">
+        <v>86</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="56" t="s">
-        <v>77</v>
+      <c r="J5" s="43" t="s">
+        <v>19</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="8" t="s">
@@ -1322,41 +1362,41 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="87" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+    <row r="6" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>73</v>
+      <c r="I6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" s="67" t="s">
+        <v>92</v>
       </c>
       <c r="K6" s="13"/>
-      <c r="L6" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>73</v>
+      <c r="L6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="M6" s="67" t="s">
+        <v>92</v>
       </c>
       <c r="N6" s="13"/>
       <c r="O6" s="6" t="s">
@@ -1366,41 +1406,41 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+    <row r="7" spans="1:23" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="56" t="s">
-        <v>77</v>
+      <c r="B7" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>94</v>
       </c>
       <c r="F7" s="13"/>
-      <c r="G7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="56" t="s">
-        <v>77</v>
+      <c r="G7" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="I7" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" s="43" t="s">
+        <v>94</v>
       </c>
       <c r="K7" s="13"/>
-      <c r="L7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>19</v>
+      <c r="L7" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" s="43" t="s">
+        <v>94</v>
       </c>
       <c r="N7" s="13"/>
       <c r="O7" s="6" t="s">
@@ -1408,6 +1448,11 @@
       </c>
       <c r="P7" s="5" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B9" s="48" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1428,567 +1473,567 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="74.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="74.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="45"/>
-      <c r="B1" s="44" t="s">
+      <c r="A1" s="42"/>
+      <c r="B1" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="44" t="s">
+      <c r="C1" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" s="44" t="s">
+      <c r="H1" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="41" t="s">
         <v>58</v>
-      </c>
-      <c r="K1" s="44" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>57</v>
+      <c r="B2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="21" t="s">
+      <c r="B4" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="J4" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23" t="s">
+      <c r="B5" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" s="23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="K5" s="37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="J5" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" s="34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18" t="s">
-        <v>29</v>
+      <c r="B6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18" t="s">
-        <v>67</v>
+        <v>36</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18" t="s">
-        <v>29</v>
+        <v>61</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18" t="s">
-        <v>66</v>
+        <v>75</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="87" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="H8" s="66" t="s">
-        <v>84</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="K8" s="25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="69.599999999999994" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>38</v>
+        <v>28</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>37</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="50" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="58"/>
+      <c r="F10" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="50" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="62"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="56"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="53"/>
+    </row>
+    <row r="12" spans="1:11" s="50" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+      <c r="A12" s="63"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="57"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="54"/>
+    </row>
+    <row r="13" spans="1:11" s="50" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="58"/>
+      <c r="F13" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="50" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="63"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="57"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="54"/>
+    </row>
+    <row r="15" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="28" t="s">
+      <c r="J15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="K17" s="29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="K9" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="60"/>
-      <c r="F10" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="I10" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="K10" s="50" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="I11" s="48"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="51"/>
-    </row>
-    <row r="12" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="I12" s="49"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="52"/>
-    </row>
-    <row r="13" spans="1:11" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="60"/>
-      <c r="F13" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="63" t="s">
-        <v>86</v>
-      </c>
-      <c r="H13" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="I13" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="J13" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="K13" s="50" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="I14" s="49"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="52"/>
-    </row>
-    <row r="15" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J15" s="3" t="s">
+      <c r="B19" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="32"/>
+      <c r="G19" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="K15" s="18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="K16" s="18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="31"/>
-      <c r="H17" s="32" t="s">
+      <c r="K19" s="32" t="s">
         <v>55</v>
-      </c>
-      <c r="I17" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="J17" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="K17" s="31" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="H18" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="J18" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="I19" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="J19" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="K19" s="34" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2000,20 +2045,20 @@
     <mergeCell ref="K13:K14"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="J10:J12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="E13:E14"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="E10:E12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2042,7 +2087,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/其他文档/Others/Sports/Formula One赛车比赛观赛选择方式.xlsx
+++ b/文档/其他文档/Others/Sports/Formula One赛车比赛观赛选择方式.xlsx
@@ -8,19 +8,21 @@
   </bookViews>
   <sheets>
     <sheet name="观赛转播平台统计" sheetId="1" r:id="rId1"/>
-    <sheet name="转播的APP和链接说明" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="转播的APP和链接说明" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="转播平台以及观看指南" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">观赛转播平台统计!$A$2:$E$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">转播的APP和链接说明!$B$1:$K$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">转播平台以及观看指南!$A$1:$M$8</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="146">
   <si>
     <t>第一次自由练习
 Free Practice 1</t>
@@ -42,15 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>排位赛
-Qualifying</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电视</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>首选</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,16 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>五星体育
-劲爆体育</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCTV5
-CCTV5+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>企鹅直播</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,19 +89,6 @@
   </si>
   <si>
     <t>腾讯体育</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星火电视
-央视影音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安卓Android</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -252,10 +222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://sportsurge.net/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www1.gdtv.cn/tvChannelDetail/47</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -332,12 +298,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电视家
-播播TV
-黑白直播</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>播播TV</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -393,81 +353,302 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">
+哔哩哔哩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓Android</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+腾讯体育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企鹅直播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+腾讯体育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五星体育
+企鹅直播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五星体育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五星体育
+哔哩哔哩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCTV5,CCTV5+
+腾讯体育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCTV5
+CCTV5+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五星体育
+哔哩哔哩
+企鹅直播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企鹅直播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>腾讯体育</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>观赛平台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电视家
-播播TV
-企鹅直播</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电视家
-播播TV
-求苗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IOS版本
-黑白直播
-名为求苗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五星体育直播源
-劲爆体育直播源
-黑白直播
-企鹅直播</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCTV5，5+网页直播
-广东体育网页直播
-英国Sky F1网页直播
-Reddit集合网页直播</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五星体育直播源
-劲爆体育直播源
-黑白直播
-灏哥B站直播</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCTV5，5+网页直播
-广东体育网页直播
-英国Sky F1网页直播
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定</t>
+  </si>
+  <si>
+    <t>稳定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哔哩哔哩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能电视TV盒子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视(包括智能电视TV盒子)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sports.qq.com/kbsweb/index.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://live.bilibili.com/22949996?broadcast_type=0&amp;is_room_feed=0&amp;share_medium=iphone&amp;share_plat=ios&amp;share_session_id=099BAF32-6C54-460B-83AB-17FE919F3F8F&amp;share_source=WEIXIN&amp;share_tag=s_i&amp;timestamp=1633780705&amp;unique_k=FZGy5d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转播备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五星体育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>央视影音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCTV5+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCTV5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划转播赛事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火星直播
+亿家直播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火星直播
+亿家直播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑白直播
+电视家,播播TV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛事转播稳定性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>较稳定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不是很稳定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大多数情况下会为其他的比赛让路而取消播出
+偶有进行直播或者延时播出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企鹅直播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哔哩哔哩
+VipLeague F1转播网站</t>
+  </si>
+  <si>
+    <t>CCTV5，CCTV5+
+VipLeague F1转播网站</t>
+  </si>
+  <si>
+    <t>CCTV5，CCTV5+
+VipLeague F1转播网站
 腾讯体育</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-央视影音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>求苗
-央视影音
-腾讯体育</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑白直播
-央视影音
-腾讯体育</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCTV5，5+网页直播
-广东体育网页直播
-英国Sky F1网页直播
-Reddit集合网页直播</t>
+  </si>
+  <si>
+    <t>CCTV5，CCTV5+
+VipLeague F1转播网站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VipLeague网站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周六排位赛/冲刺排位赛受腾讯网络版权限制，无法视频转播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周六排位赛/冲刺排位赛
+正赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周六排位赛/冲刺排位赛
+正赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周六排位赛/冲刺排位赛
+正赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信新媒体会员200元/年，包含全年周六排位赛/冲刺排位赛和正赛
+有时会为其他的比赛让路，进行延时播出或者取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周六排位赛/冲刺排位赛
+Qualifying/Sprint Qualifying</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五排位赛（在冲刺排位赛的周末举行）
+Qualifying on Friday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周六排位赛/冲刺排位赛需付费观看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各类直播源
+(通过PotPlayer或VLC播放)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络平台首选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络平台次选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络平台备选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视平台首选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视平台次选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络平台没办法了才选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Up主：1988senna会使用海外频道Star Sports Select进行转播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括Sky Sports F1,DAZN F1,Motorsport,Fox Sports
+等国外转播F1的频道在VipLeague网站进行转播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sportsurge.net/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.vipleague.tv/formula-1-sports-stream
+https://sportsurge.net/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,7 +656,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,8 +686,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -597,8 +799,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF339966"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -658,12 +866,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -676,9 +910,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -747,29 +978,46 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -815,7 +1063,7 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -827,8 +1075,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FF339966"/>
       <color rgb="FFFF3399"/>
-      <color rgb="FF339966"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1129,331 +1377,373 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W9"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="4"/>
     <col min="7" max="7" width="15.375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="4"/>
     <col min="12" max="12" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="4"/>
     <col min="15" max="15" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21" style="1" customWidth="1"/>
     <col min="17" max="17" width="9" style="1"/>
     <col min="18" max="18" width="10.375" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="59"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="P1" s="61"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="13"/>
+      <c r="L2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="13"/>
+      <c r="O2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="4"/>
+    </row>
+    <row r="3" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="N3" s="12"/>
+      <c r="O3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="W3" s="4"/>
+    </row>
+    <row r="4" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="N4" s="12"/>
+      <c r="O4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="77" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="N5" s="12"/>
+      <c r="O5" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P5" s="77" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="N6" s="12"/>
+      <c r="O6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P6" s="77" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="N7" s="12"/>
+      <c r="O7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7" s="47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="51"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="51"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="W2" s="4"/>
-    </row>
-    <row r="3" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="43" t="s">
+      <c r="C8" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="43" t="s">
+      <c r="D8" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="W3" s="4"/>
-    </row>
-    <row r="4" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="J6" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="M6" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="H7" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="I7" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="J7" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="M7" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="B9" s="48" t="s">
-        <v>90</v>
-      </c>
+      <c r="I8" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="N8" s="12"/>
+      <c r="O8" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8" s="47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B10" s="46"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:E3"/>
@@ -1473,7 +1763,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1490,550 +1782,550 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="42"/>
-      <c r="B1" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="41" t="s">
+      <c r="A1" s="41"/>
+      <c r="B1" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="41" t="s">
+      <c r="B4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="H5" s="33"/>
+      <c r="I5" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="45" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="B10" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="68"/>
+      <c r="F10" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="62" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="45" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="72"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="66"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="63"/>
+    </row>
+    <row r="12" spans="1:11" s="45" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+      <c r="A12" s="73"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="67"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="64"/>
+    </row>
+    <row r="13" spans="1:11" s="45" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="J1" s="41" t="s">
+      <c r="B13" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="68"/>
+      <c r="F13" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="K1" s="41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18" t="s">
+      <c r="J13" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="K13" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="J5" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="K5" s="34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="K8" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="50" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="58"/>
-      <c r="F10" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="55" t="s">
+    </row>
+    <row r="14" spans="1:11" s="45" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="73"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="I10" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="J10" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="K10" s="52" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="50" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" s="56"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="53"/>
-    </row>
-    <row r="12" spans="1:11" s="50" customFormat="1" ht="42" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="I12" s="57"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="54"/>
-    </row>
-    <row r="13" spans="1:11" s="50" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="58"/>
-      <c r="F13" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="H13" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="I13" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="J13" s="64" t="s">
-        <v>85</v>
-      </c>
-      <c r="K13" s="52" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="50" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="I14" s="57"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="54"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="64"/>
     </row>
     <row r="15" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>45</v>
+        <v>33</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K15" s="16" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="28"/>
+      <c r="H17" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K16" s="16" t="s">
+      <c r="I17" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="J18" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="31"/>
+      <c r="G19" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="I19" s="31" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="J19" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="K19" s="31" t="s">
         <v>47</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="I17" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="J17" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="K17" s="29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="I18" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="J18" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="H19" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="I19" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="J19" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="K19" s="32" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2083,6 +2375,352 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.75" style="58" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="73.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="21.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="41"/>
+      <c r="B1" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="57"/>
+      <c r="I5" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="J5" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="K5" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="L5" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="M5" s="49" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="42" x14ac:dyDescent="0.25">
+      <c r="A8" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="51"/>
+      <c r="H8" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="I8" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="K8" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="M8" s="51" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:M8"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H4" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId2"/>
+    <hyperlink ref="H3" r:id="rId3"/>
+    <hyperlink ref="H6" r:id="rId4"/>
+    <hyperlink ref="H7" r:id="rId5"/>
+    <hyperlink ref="H8" r:id="rId6" display="https://www.vipleague.tv/formula-1-sports-stream"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/文档/其他文档/Others/Sports/Formula One赛车比赛观赛选择方式.xlsx
+++ b/文档/其他文档/Others/Sports/Formula One赛车比赛观赛选择方式.xlsx
@@ -4,25 +4,29 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="观赛转播平台统计" sheetId="1" r:id="rId1"/>
+    <sheet name="观赛转播平台统计(2021)" sheetId="1" r:id="rId1"/>
     <sheet name="转播的APP和链接说明" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="转播平台以及观看指南" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="转播平台以及观看指南(2021)" sheetId="4" r:id="rId3"/>
+    <sheet name="观赛转播平台统计(2022)" sheetId="5" r:id="rId4"/>
+    <sheet name="转播平台以及观看指南(2022)" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">观赛转播平台统计!$A$2:$E$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'观赛转播平台统计(2021)'!$A$2:$E$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'观赛转播平台统计(2022)'!$A$2:$E$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">转播的APP和链接说明!$B$1:$K$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">转播平台以及观看指南!$A$1:$M$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'转播平台以及观看指南(2021)'!$A$1:$M$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'转播平台以及观看指南(2022)'!$A$1:$M$7</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="188">
   <si>
     <t>第一次自由练习
 Free Practice 1</t>
@@ -649,6 +653,190 @@
   <si>
     <t>https://www.vipleague.tv/formula-1-sports-stream
 https://sportsurge.net/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1 TV Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">五星体育
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓饭直播
+企鹅直播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1 TV Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五星体育
+F1 TV Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五星体育
+F1 TV Pro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企鹅直播
+广东体育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓饭,企鹅直播
+广东体育</t>
+  </si>
+  <si>
+    <t>广东体育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑白直播
+电视家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视平台次选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络平台首选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://f1tv.formula1.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1官方转播平台,528元/年,60元/月,需要挂指定地区（推荐美国）代理才能观看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://f1livegp.me/f1/live3.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓饭直播,企鹅直播
+Sky Sports F1</t>
+  </si>
+  <si>
+    <t>抓饭,企鹅直播,广东体育
+Sky Sports F1</t>
+  </si>
+  <si>
+    <t>苹果IOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sky Sports F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑白直播
+f1livegp.me 网站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑白直播提供Sky Sports F1转播源
+f1liveme网站提供Sky Sports F1的稳定直播网站,推荐挂代理观看,直播不会卡顿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022年腾讯体育无F1转播版权,各类主播可能会进行直播(推荐:邱超Norman,Senna1988,赛车星冰乐,光仔等)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络平台次选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP,网页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓饭直播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周六排位赛/冲刺排位赛
+正赛 (上海封城期间转播了所有)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.zhuafan.tech/v2/live/399236</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑白直播网页
+f1livegp.me 网站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑白直播APP,网页
+f1livegp.me 网站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官网直播链接可能会在比赛直播期间出现版权问题无法观看，推荐使用直播源或APP进行收看
+赛事可能会受其他赛事出现延迟，取消播出的情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑白,火星,亿家直播
+电视家,播播TV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑白,火星,亿家直播
+电视家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络平台备选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.haoqiu365.com/3/1113.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无官方直播网站链接，推荐使用APP,直播源和第三方直播网站等方式进行观看
+赛事可能会受其他赛事出现延迟，取消播出的情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网页直播链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.gdtv.cn/tvChannelDetail/47
+http://www.haoqiu365.com/3/guangdongtiyu.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022年腾讯体育无F1转播版权,主播2003kimi(企鹅直播号Senna1988)会在抓饭直播</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -656,7 +844,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -707,8 +895,31 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -805,6 +1016,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -897,7 +1120,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1009,6 +1232,34 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1019,6 +1270,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1028,13 +1288,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1053,18 +1313,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1075,16 +1323,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF3399"/>
       <color rgb="FF339966"/>
-      <color rgb="FFFF3399"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1379,7 +1624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1408,29 +1653,29 @@
       <c r="A1" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
       <c r="F1" s="13"/>
-      <c r="G1" s="59" t="s">
+      <c r="G1" s="73" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
       <c r="K1" s="14"/>
-      <c r="L1" s="59" t="s">
+      <c r="L1" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="59"/>
+      <c r="M1" s="73"/>
       <c r="N1" s="13"/>
-      <c r="O1" s="60" t="s">
+      <c r="O1" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="P1" s="61"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -1517,7 +1762,7 @@
       <c r="O3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="77" t="s">
+      <c r="P3" s="59" t="s">
         <v>79</v>
       </c>
       <c r="W3" s="4"/>
@@ -1562,7 +1807,7 @@
       <c r="O4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="59" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1606,7 +1851,7 @@
       <c r="O5" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P5" s="77" t="s">
+      <c r="P5" s="59" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1650,7 +1895,7 @@
       <c r="O6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="77" t="s">
+      <c r="P6" s="59" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2055,115 +2300,115 @@
       </c>
     </row>
     <row r="10" spans="1:11" s="45" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="68"/>
-      <c r="F10" s="62" t="s">
+      <c r="E10" s="85"/>
+      <c r="F10" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="65" t="s">
+      <c r="G10" s="76" t="s">
         <v>63</v>
       </c>
       <c r="H10" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="I10" s="65" t="s">
+      <c r="I10" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="74" t="s">
+      <c r="J10" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="K10" s="62" t="s">
+      <c r="K10" s="79" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="45" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="72"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="66"/>
+      <c r="A11" s="89"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="77"/>
       <c r="H11" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="66"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="63"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="80"/>
     </row>
     <row r="12" spans="1:11" s="45" customFormat="1" ht="42" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="67"/>
+      <c r="A12" s="90"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="78"/>
       <c r="H12" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="I12" s="67"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="64"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="81"/>
     </row>
     <row r="13" spans="1:11" s="45" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="68"/>
-      <c r="F13" s="62" t="s">
+      <c r="E13" s="85"/>
+      <c r="F13" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="65" t="s">
+      <c r="G13" s="76" t="s">
         <v>70</v>
       </c>
       <c r="H13" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="I13" s="65" t="s">
+      <c r="I13" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="J13" s="74" t="s">
+      <c r="J13" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="K13" s="62" t="s">
+      <c r="K13" s="79" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="45" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="73"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="67"/>
+      <c r="A14" s="90"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="78"/>
       <c r="H14" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="I14" s="67"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="64"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="83"/>
+      <c r="K14" s="81"/>
     </row>
     <row r="15" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -2331,12 +2576,6 @@
   </sheetData>
   <autoFilter ref="B1:K19"/>
   <mergeCells count="20">
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J10:J12"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="E10:E12"/>
@@ -2351,6 +2590,12 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="E13:E14"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J10:J12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2721,6 +2966,684 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="4"/>
+    <col min="12" max="12" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="4"/>
+    <col min="15" max="15" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="1"/>
+    <col min="18" max="18" width="10.375" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="73"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="P1" s="75"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="13"/>
+      <c r="L2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="13"/>
+      <c r="O2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="4"/>
+    </row>
+    <row r="3" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M3" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="N3" s="12"/>
+      <c r="O3" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="61"/>
+      <c r="W3" s="4"/>
+    </row>
+    <row r="4" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="J4" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M4" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="N4" s="12"/>
+      <c r="O4" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="61"/>
+    </row>
+    <row r="5" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="J5" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M5" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="N5" s="12"/>
+      <c r="O5" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" s="61"/>
+    </row>
+    <row r="6" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H6" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="J6" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M6" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="N6" s="12"/>
+      <c r="O6" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="P6" s="61"/>
+    </row>
+    <row r="7" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="J7" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="M7" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="N7" s="12"/>
+      <c r="O7" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="P7" s="47" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H8" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="J8" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="M8" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="N8" s="12"/>
+      <c r="O8" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="P8" s="47" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B10" s="46"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:E3"/>
+  <mergeCells count="4">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="O1:P1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="22.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="63.25" style="58" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="126.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="21.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="41"/>
+      <c r="B1" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="40" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="68" t="s">
+        <v>159</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="65" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="65"/>
+      <c r="H3" s="71" t="s">
+        <v>176</v>
+      </c>
+      <c r="I3" s="65" t="s">
+        <v>146</v>
+      </c>
+      <c r="J3" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="K3" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="65" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="70" t="s">
+        <v>183</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="J5" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="K5" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="49" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="I6" s="64" t="s">
+        <v>127</v>
+      </c>
+      <c r="J6" s="64" t="s">
+        <v>179</v>
+      </c>
+      <c r="K6" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="63" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="51"/>
+      <c r="H7" s="72" t="s">
+        <v>161</v>
+      </c>
+      <c r="I7" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="K7" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="M7" s="51" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:M7"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/文档/其他文档/Others/Sports/Formula One赛车比赛观赛选择方式.xlsx
+++ b/文档/其他文档/Others/Sports/Formula One赛车比赛观赛选择方式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="观赛转播平台统计(2021)" sheetId="1" r:id="rId1"/>
@@ -12,21 +12,25 @@
     <sheet name="转播平台以及观看指南(2021)" sheetId="4" r:id="rId3"/>
     <sheet name="观赛转播平台统计(2022)" sheetId="5" r:id="rId4"/>
     <sheet name="转播平台以及观看指南(2022)" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="观赛转播平台统计(2023)" sheetId="7" r:id="rId6"/>
+    <sheet name="转播平台以及观看指南(2023)" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'观赛转播平台统计(2021)'!$A$2:$E$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'观赛转播平台统计(2022)'!$A$2:$E$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'观赛转播平台统计(2023)'!$A$2:$E$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">转播的APP和链接说明!$B$1:$K$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'转播平台以及观看指南(2021)'!$A$1:$M$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'转播平台以及观看指南(2022)'!$A$1:$M$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'转播平台以及观看指南(2023)'!$A$1:$L$6</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="224">
   <si>
     <t>第一次自由练习
 Free Practice 1</t>
@@ -837,6 +841,161 @@
   </si>
   <si>
     <t>2022年腾讯体育无F1转播版权,主播2003kimi(企鹅直播号Senna1988)会在抓饭直播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台湾纬来体育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主播2003kimi(企鹅直播号Senna1988)会在抓饭直播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由Jrskan8.com提供的台湾纬来体育在线观看直播的网页地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由国外网站提供Sky Sports F1的在线直播网页地址，无需代理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云海电视,小鲸电视,电视家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视直播TV,
+电视家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电视直播TV,
+电视家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.zhuafan.co/v2/live/399236</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邱超norman：https://live.qq.com/10002730
+跑圈界力源：https://live.qq.com/10067029
+赛车星冰乐：https://live.qq.com/10161540</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主播邱超Norman,跑圈界力源，赛车星冰乐
+会在企鹅体育直播
+周六排位赛或冲刺赛可能以语音形式直播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.jrskan8.com/wlty.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kankanzhibo.com/tiyupindao/wuxingtiyu.html
+http://live.tvfix.org/play/wxtyhd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://en.crichd.tv/sky-sports-f1-live-streaming-fone
+https://www.vipleague.st/f1-qualifying-f1-main-race-1-live-streaming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网页端抓取直播源,贴入上述电视直播APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企鹅体育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次自由练习 Free Practice 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二次自由练习 Free Practice 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三次自由练习 Free Practice 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲刺赛 Sprint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正赛 Race</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正赛排位赛（冲刺赛周末放周五举行）Qualifying</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓饭直播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sky Sports F1,抓饭直播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五星体育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台湾纬来体育,企鹅直播,广东体育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台湾纬来体育,Sky Sports F1,企鹅直播,抓饭直播,广东体育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP,网页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企鹅体育,抓饭直播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台湾纬来体育,Sky Sports F1,企鹅直播,抓饭直播,广东体育</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP
+网页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正赛排位赛/冲刺赛/
+正赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正赛排位赛/冲刺赛/
+正赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲刺赛排位赛 Sprint Shootout</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1120,7 +1279,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1270,6 +1429,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1279,13 +1447,22 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1296,23 +1473,18 @@
     <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2300,115 +2472,115 @@
       </c>
     </row>
     <row r="10" spans="1:11" s="45" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="79" t="s">
+      <c r="C10" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="79" t="s">
+      <c r="D10" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="85"/>
-      <c r="F10" s="79" t="s">
+      <c r="E10" s="82"/>
+      <c r="F10" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="76" t="s">
+      <c r="G10" s="79" t="s">
         <v>63</v>
       </c>
       <c r="H10" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="I10" s="76" t="s">
+      <c r="I10" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="82" t="s">
+      <c r="J10" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="K10" s="79" t="s">
+      <c r="K10" s="76" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="45" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="89"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="77"/>
+      <c r="A11" s="86"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="80"/>
       <c r="H11" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="77"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="77"/>
     </row>
     <row r="12" spans="1:11" s="45" customFormat="1" ht="42" x14ac:dyDescent="0.25">
-      <c r="A12" s="90"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="78"/>
+      <c r="A12" s="87"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="81"/>
       <c r="H12" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="I12" s="78"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="78"/>
     </row>
     <row r="13" spans="1:11" s="45" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="79" t="s">
+      <c r="D13" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="85"/>
-      <c r="F13" s="79" t="s">
+      <c r="E13" s="82"/>
+      <c r="F13" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="76" t="s">
+      <c r="G13" s="79" t="s">
         <v>70</v>
       </c>
       <c r="H13" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="I13" s="76" t="s">
+      <c r="I13" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="J13" s="82" t="s">
+      <c r="J13" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="K13" s="79" t="s">
+      <c r="K13" s="76" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="45" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="90"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="78"/>
+      <c r="A14" s="87"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="81"/>
       <c r="H14" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="I14" s="78"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="78"/>
     </row>
     <row r="15" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -2576,6 +2748,12 @@
   </sheetData>
   <autoFilter ref="B1:K19"/>
   <mergeCells count="20">
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J10:J12"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="E10:E12"/>
@@ -2590,12 +2768,6 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="E13:E14"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J10:J12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -2968,7 +3140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3345,7 +3517,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -3644,6 +3816,711 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="59.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="4"/>
+    <col min="7" max="7" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="71.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="4"/>
+    <col min="12" max="12" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="71.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="4"/>
+    <col min="15" max="15" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="40.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="1"/>
+    <col min="18" max="18" width="10.375" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="73"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="P1" s="75"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="13"/>
+      <c r="L2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="13"/>
+      <c r="O2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="4"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H3" s="60" t="s">
+        <v>212</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="J3" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="M3" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="N3" s="12"/>
+      <c r="O3" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P3" s="61"/>
+      <c r="W3" s="4"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>212</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="J4" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="M4" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="N4" s="12"/>
+      <c r="O4" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P4" s="61"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H5" s="60" t="s">
+        <v>212</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="J5" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="M5" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="N5" s="12"/>
+      <c r="O5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P5" s="61"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="N6" s="12"/>
+      <c r="O6" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>212</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E7" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H7" s="60" t="s">
+        <v>212</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="M7" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="N7" s="12"/>
+      <c r="O7" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P7" s="61"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="N8" s="12"/>
+      <c r="O8" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="N9" s="12"/>
+      <c r="O9" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B11" s="46"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:E3"/>
+  <mergeCells count="4">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="O1:P1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="75.75" style="58" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="107.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="21.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="41"/>
+      <c r="B1" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="91" t="s">
+        <v>199</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" s="66" t="s">
+        <v>200</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="92" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="92" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92" t="s">
+        <v>198</v>
+      </c>
+      <c r="I3" s="92" t="s">
+        <v>99</v>
+      </c>
+      <c r="J3" s="92" t="s">
+        <v>190</v>
+      </c>
+      <c r="K3" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="92" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="93" t="s">
+        <v>202</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="J4" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="K4" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="63" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="F5" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="94" t="s">
+        <v>186</v>
+      </c>
+      <c r="I5" s="64" t="s">
+        <v>222</v>
+      </c>
+      <c r="J5" s="64" t="s">
+        <v>179</v>
+      </c>
+      <c r="K5" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="63" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="G6" s="51"/>
+      <c r="H6" s="95" t="s">
+        <v>203</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="K6" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:L6"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1"/>
+    <hyperlink ref="H7" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/文档/其他文档/Others/Sports/Formula One赛车比赛观赛选择方式.xlsx
+++ b/文档/其他文档/Others/Sports/Formula One赛车比赛观赛选择方式.xlsx
@@ -856,10 +856,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>由Jrskan8.com提供的台湾纬来体育在线观看直播的网页地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>稳定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -902,10 +898,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.jrskan8.com/wlty.php</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.kankanzhibo.com/tiyupindao/wuxingtiyu.html
 http://live.tvfix.org/play/wxtyhd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -916,10 +908,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>网页端抓取直播源,贴入上述电视直播APP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>企鹅体育</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -996,6 +984,19 @@
   </si>
   <si>
     <t>冲刺赛排位赛 Sprint Shootout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.jrskan8.com/wlty.php
+https://www.kankanzhibo.com/tiyupindao/weilaitiyu.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由Jrskan8.com和看看直播提供的台湾纬来体育在线观看直播的网页地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可在网页端抓取直播源,贴入上述电视直播APP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1419,60 +1420,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1485,6 +1432,60 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1825,29 +1826,29 @@
       <c r="A1" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
       <c r="F1" s="13"/>
-      <c r="G1" s="73" t="s">
+      <c r="G1" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
       <c r="K1" s="14"/>
-      <c r="L1" s="73" t="s">
+      <c r="L1" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="73"/>
+      <c r="M1" s="78"/>
       <c r="N1" s="13"/>
-      <c r="O1" s="74" t="s">
+      <c r="O1" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="P1" s="75"/>
+      <c r="P1" s="80"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -2472,115 +2473,115 @@
       </c>
     </row>
     <row r="10" spans="1:11" s="45" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="76" t="s">
+      <c r="C10" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="76" t="s">
+      <c r="D10" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="82"/>
-      <c r="F10" s="76" t="s">
+      <c r="E10" s="90"/>
+      <c r="F10" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="79" t="s">
+      <c r="G10" s="81" t="s">
         <v>63</v>
       </c>
       <c r="H10" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="I10" s="79" t="s">
+      <c r="I10" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="88" t="s">
+      <c r="J10" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="K10" s="76" t="s">
+      <c r="K10" s="84" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="45" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="86"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="80"/>
+      <c r="A11" s="94"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="82"/>
       <c r="H11" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="80"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="77"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="85"/>
     </row>
     <row r="12" spans="1:11" s="45" customFormat="1" ht="42" x14ac:dyDescent="0.25">
-      <c r="A12" s="87"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="81"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="83"/>
       <c r="H12" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="I12" s="81"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="78"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="86"/>
     </row>
     <row r="13" spans="1:11" s="45" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="76" t="s">
+      <c r="C13" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="76" t="s">
+      <c r="D13" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="82"/>
-      <c r="F13" s="76" t="s">
+      <c r="E13" s="90"/>
+      <c r="F13" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="79" t="s">
+      <c r="G13" s="81" t="s">
         <v>70</v>
       </c>
       <c r="H13" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="I13" s="79" t="s">
+      <c r="I13" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="J13" s="88" t="s">
+      <c r="J13" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="K13" s="76" t="s">
+      <c r="K13" s="84" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="45" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="87"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="81"/>
+      <c r="A14" s="95"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="83"/>
       <c r="H14" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="I14" s="81"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="78"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="86"/>
     </row>
     <row r="15" spans="1:11" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -2748,12 +2749,6 @@
   </sheetData>
   <autoFilter ref="B1:K19"/>
   <mergeCells count="20">
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="J10:J12"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="E10:E12"/>
@@ -2768,6 +2763,12 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="E13:E14"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J10:J12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3169,29 +3170,29 @@
       <c r="A1" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="78" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
       <c r="F1" s="13"/>
-      <c r="G1" s="73" t="s">
+      <c r="G1" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
       <c r="K1" s="14"/>
-      <c r="L1" s="73" t="s">
+      <c r="L1" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="73"/>
+      <c r="M1" s="78"/>
       <c r="N1" s="13"/>
-      <c r="O1" s="74" t="s">
+      <c r="O1" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="P1" s="75"/>
+      <c r="P1" s="80"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -3847,29 +3848,29 @@
       <c r="A1" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
       <c r="F1" s="13"/>
-      <c r="G1" s="73" t="s">
+      <c r="G1" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
       <c r="K1" s="14"/>
-      <c r="L1" s="73" t="s">
+      <c r="L1" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="73"/>
+      <c r="M1" s="78"/>
       <c r="N1" s="13"/>
-      <c r="O1" s="74" t="s">
+      <c r="O1" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="P1" s="75"/>
+      <c r="P1" s="80"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
@@ -3918,303 +3919,303 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E3" s="52" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H3" s="60" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J3" s="52" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K3" s="12"/>
       <c r="L3" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M3" s="52" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="N3" s="12"/>
       <c r="O3" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="P3" s="61"/>
       <c r="W3" s="4"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C4" s="60" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E4" s="52" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H4" s="60" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J4" s="52" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K4" s="12"/>
       <c r="L4" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M4" s="52" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="P4" s="61"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C5" s="60" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H5" s="60" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J5" s="52" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M5" s="52" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="P5" s="61"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>214</v>
-      </c>
       <c r="C6" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K6" s="12"/>
       <c r="L6" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="N6" s="12"/>
       <c r="O6" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H7" s="60" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="J7" s="52" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M7" s="52" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="P7" s="61"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="N8" s="12"/>
       <c r="O8" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="N9" s="12"/>
       <c r="O9" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -4296,10 +4297,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>110</v>
@@ -4311,14 +4312,14 @@
         <v>21</v>
       </c>
       <c r="G2" s="16"/>
-      <c r="H2" s="91" t="s">
-        <v>199</v>
+      <c r="H2" s="73" t="s">
+        <v>198</v>
       </c>
       <c r="I2" s="16" t="s">
         <v>99</v>
       </c>
       <c r="J2" s="66" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K2" s="16" t="s">
         <v>48</v>
@@ -4328,36 +4329,36 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="74" t="s">
         <v>174</v>
       </c>
-      <c r="B3" s="92" t="s">
-        <v>217</v>
-      </c>
-      <c r="C3" s="92" t="s">
+      <c r="B3" s="74" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="D3" s="92" t="s">
+      <c r="D3" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92" t="s">
-        <v>198</v>
-      </c>
-      <c r="I3" s="92" t="s">
+      <c r="E3" s="74"/>
+      <c r="F3" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74" t="s">
+        <v>197</v>
+      </c>
+      <c r="I3" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="J3" s="92" t="s">
+      <c r="J3" s="74" t="s">
         <v>190</v>
       </c>
-      <c r="K3" s="92" t="s">
+      <c r="K3" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="92" t="s">
+      <c r="L3" s="74" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4366,16 +4367,16 @@
         <v>63</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D4" s="50" t="s">
         <v>134</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F4" s="49" t="s">
         <v>21</v>
@@ -4383,11 +4384,11 @@
       <c r="G4" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="93" t="s">
-        <v>202</v>
+      <c r="H4" s="75" t="s">
+        <v>200</v>
       </c>
       <c r="I4" s="50" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J4" s="50" t="s">
         <v>184</v>
@@ -4404,16 +4405,16 @@
         <v>155</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="64" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D5" s="64" t="s">
         <v>134</v>
       </c>
       <c r="E5" s="64" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F5" s="63" t="s">
         <v>21</v>
@@ -4421,11 +4422,11 @@
       <c r="G5" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="94" t="s">
+      <c r="H5" s="76" t="s">
         <v>186</v>
       </c>
       <c r="I5" s="64" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="J5" s="64" t="s">
         <v>179</v>
@@ -4452,17 +4453,17 @@
       </c>
       <c r="E6" s="51"/>
       <c r="F6" s="51" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G6" s="51"/>
-      <c r="H6" s="95" t="s">
-        <v>203</v>
+      <c r="H6" s="77" t="s">
+        <v>201</v>
       </c>
       <c r="I6" s="51" t="s">
         <v>99</v>
       </c>
       <c r="J6" s="52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K6" s="51" t="s">
         <v>48</v>
@@ -4485,26 +4486,26 @@
         <v>189</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>21</v>
       </c>
       <c r="G7" s="15"/>
-      <c r="H7" s="15" t="s">
-        <v>201</v>
+      <c r="H7" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="J7" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="K7" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="K7" s="15" t="s">
-        <v>192</v>
-      </c>
       <c r="L7" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -4512,7 +4513,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H3" r:id="rId1"/>
-    <hyperlink ref="H7" r:id="rId2"/>
+    <hyperlink ref="H7" r:id="rId2" display="http://www.jrskan8.com/wlty.php"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
